--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_CaoAnhVuong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_CaoAnhVuong.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="80">
   <si>
     <t>STT</t>
   </si>
@@ -279,9 +279,6 @@
     <t>Thể</t>
   </si>
   <si>
-    <t>Thiết bị không lên nguồn</t>
-  </si>
-  <si>
     <t>125.212.203.114,16767</t>
   </si>
   <si>
@@ -289,6 +286,12 @@
   </si>
   <si>
     <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>TB HHDV</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi khởi động</t>
   </si>
 </sst>
 </file>
@@ -740,29 +743,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -782,11 +765,31 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1128,39 +1131,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1205,58 +1208,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1281,23 +1284,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1323,7 +1326,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1354,7 +1357,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1383,7 +1386,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1412,7 +1415,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1441,7 +1444,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1470,7 +1473,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1499,7 +1502,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1530,7 +1533,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1559,7 +1562,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1588,7 +1591,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1617,7 +1620,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3333,6 +3336,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3344,13 +3354,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3394,39 +3397,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3471,58 +3474,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3547,23 +3550,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3589,7 +3592,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3620,7 +3623,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3649,7 +3652,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3678,7 +3681,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3707,7 +3710,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3736,7 +3739,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3765,7 +3768,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3796,7 +3799,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3825,7 +3828,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3854,7 +3857,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3883,7 +3886,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5599,13 +5602,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5617,6 +5613,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5660,39 +5663,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5737,58 +5740,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5813,23 +5816,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5855,7 +5858,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5886,7 +5889,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5915,7 +5918,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5944,7 +5947,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5973,7 +5976,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6002,7 +6005,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6031,7 +6034,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6062,7 +6065,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6091,7 +6094,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6120,7 +6123,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6149,7 +6152,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7865,13 +7868,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7883,6 +7879,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7926,39 +7929,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8003,58 +8006,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8079,23 +8082,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8121,7 +8124,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8152,7 +8155,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8181,7 +8184,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8210,7 +8213,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8239,7 +8242,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8268,7 +8271,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8297,7 +8300,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8328,7 +8331,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8357,7 +8360,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8386,7 +8389,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8415,7 +8418,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10131,13 +10134,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10149,6 +10145,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10159,8 +10162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10192,41 +10195,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10271,58 +10274,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10347,23 +10350,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10390,13 +10393,13 @@
       <c r="I6" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="94" t="s">
-        <v>75</v>
+      <c r="J6" s="79" t="s">
+        <v>79</v>
       </c>
       <c r="K6" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="93" t="s">
+      <c r="L6" s="78" t="s">
         <v>71</v>
       </c>
       <c r="M6" s="66" t="s">
@@ -10417,7 +10420,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10448,7 +10451,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10477,7 +10480,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10506,7 +10509,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10535,7 +10538,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10564,7 +10567,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10593,7 +10596,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10624,7 +10627,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10653,7 +10656,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10682,7 +10685,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10711,7 +10714,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12427,13 +12430,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12445,6 +12441,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12488,39 +12491,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12565,58 +12568,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12641,23 +12644,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12683,7 +12686,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12714,7 +12717,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12743,7 +12746,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12772,7 +12775,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12801,7 +12804,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12830,7 +12833,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12859,7 +12862,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12890,7 +12893,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12919,7 +12922,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12948,7 +12951,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12977,7 +12980,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14693,13 +14696,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14711,6 +14707,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14721,8 +14724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14754,41 +14757,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14833,58 +14836,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14909,23 +14912,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14950,16 +14953,18 @@
       <c r="G6" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="62" t="s">
+        <v>78</v>
+      </c>
       <c r="I6" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J6" s="64"/>
       <c r="K6" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="M6" s="66" t="s">
         <v>38</v>
@@ -14979,7 +14984,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15010,7 +15015,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15039,7 +15044,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15068,7 +15073,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15097,7 +15102,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15126,7 +15131,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15155,7 +15160,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15186,7 +15191,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15215,7 +15220,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15244,7 +15249,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15273,7 +15278,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16989,13 +16994,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17007,6 +17005,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17050,39 +17055,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17127,58 +17132,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17203,23 +17208,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17245,7 +17250,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17276,7 +17281,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17305,7 +17310,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17334,7 +17339,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17363,7 +17368,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17392,7 +17397,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17421,7 +17426,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17452,7 +17457,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17481,7 +17486,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17510,7 +17515,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17539,7 +17544,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19255,13 +19260,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19273,6 +19271,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19316,39 +19321,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19393,58 +19398,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19469,23 +19474,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19511,7 +19516,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19542,7 +19547,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19571,7 +19576,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19600,7 +19605,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19629,7 +19634,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19658,7 +19663,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19687,7 +19692,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19718,7 +19723,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19747,7 +19752,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19776,7 +19781,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19805,7 +19810,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21036,6 +21041,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21047,13 +21059,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_CaoAnhVuong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_CaoAnhVuong.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang12\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang12\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -747,6 +747,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -764,30 +788,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1131,39 +1131,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1208,58 +1208,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1284,23 +1284,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="93"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1326,7 +1326,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1357,7 +1357,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1444,7 +1444,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1502,7 +1502,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1533,7 +1533,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1620,7 +1620,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3336,13 +3336,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3354,6 +3347,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3397,39 +3397,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3474,58 +3474,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3550,23 +3550,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="93"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3592,7 +3592,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3623,7 +3623,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3652,7 +3652,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3681,7 +3681,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3710,7 +3710,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3739,7 +3739,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3768,7 +3768,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3799,7 +3799,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3828,7 +3828,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3857,7 +3857,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3886,7 +3886,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5602,6 +5602,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5613,13 +5620,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5663,39 +5663,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5740,58 +5740,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5816,23 +5816,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="93"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5858,7 +5858,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5889,7 +5889,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5918,7 +5918,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5947,7 +5947,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5976,7 +5976,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6005,7 +6005,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6034,7 +6034,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6065,7 +6065,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6094,7 +6094,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6123,7 +6123,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6152,7 +6152,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7868,6 +7868,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7879,13 +7886,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7929,39 +7929,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8006,58 +8006,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8082,23 +8082,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="93"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8124,7 +8124,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8155,7 +8155,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8184,7 +8184,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8213,7 +8213,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8242,7 +8242,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8271,7 +8271,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8300,7 +8300,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8331,7 +8331,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8360,7 +8360,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8389,7 +8389,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8418,7 +8418,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10134,6 +10134,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10145,13 +10152,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10162,8 +10162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10195,41 +10195,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10274,58 +10274,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10350,23 +10350,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="93"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10420,7 +10420,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10451,7 +10451,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10480,7 +10480,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10509,7 +10509,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10538,7 +10538,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10567,7 +10567,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10596,7 +10596,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10627,7 +10627,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10656,7 +10656,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10685,7 +10685,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10714,7 +10714,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12430,6 +12430,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12441,13 +12448,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12491,39 +12491,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12568,58 +12568,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12644,23 +12644,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="93"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12686,7 +12686,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12717,7 +12717,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12746,7 +12746,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12775,7 +12775,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12804,7 +12804,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12833,7 +12833,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12862,7 +12862,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12893,7 +12893,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12922,7 +12922,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12951,7 +12951,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12980,7 +12980,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14696,6 +14696,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14707,13 +14714,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14757,41 +14757,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14836,58 +14836,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14912,23 +14912,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="93"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14984,7 +14984,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15015,7 +15015,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15044,7 +15044,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15073,7 +15073,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15102,7 +15102,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15131,7 +15131,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15160,7 +15160,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15191,7 +15191,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15220,7 +15220,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15249,7 +15249,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15278,7 +15278,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16994,6 +16994,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17005,13 +17012,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17055,39 +17055,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17132,58 +17132,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17208,23 +17208,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="93"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17250,7 +17250,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17281,7 +17281,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17310,7 +17310,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17339,7 +17339,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17368,7 +17368,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17397,7 +17397,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17426,7 +17426,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17457,7 +17457,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17486,7 +17486,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17515,7 +17515,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17544,7 +17544,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19260,6 +19260,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19271,13 +19278,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19321,39 +19321,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19398,58 +19398,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19474,23 +19474,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="80"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="88"/>
       <c r="P5" s="94"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="93"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19516,7 +19516,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19547,7 +19547,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19576,7 +19576,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19605,7 +19605,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19634,7 +19634,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19663,7 +19663,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19692,7 +19692,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19723,7 +19723,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19752,7 +19752,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19781,7 +19781,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19810,7 +19810,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21041,13 +21041,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21059,6 +21052,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
